--- a/static/download/2018/RP2_SAF_RAT_2018.xlsx
+++ b/static/download/2018/RP2_SAF_RAT_2018.xlsx
@@ -17,10 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
   <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Data source</t>
+    <t>EASA</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>2018</t>
@@ -41,13 +53,28 @@
     <t>Separation Minima Infringements - Ground</t>
   </si>
   <si>
-    <t>EASA</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>State</t>
+  </si>
+  <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>Data Provider</t>
+  </si>
+  <si>
+    <t>SMI_GROUND_PC</t>
+  </si>
+  <si>
+    <t>SMI_OVERALL_PC</t>
+  </si>
+  <si>
+    <t>RI_GROUND_PC</t>
+  </si>
+  <si>
+    <t>RI_OVERALL_PC</t>
+  </si>
+  <si>
+    <t>TECH_OVERALL_PC</t>
   </si>
   <si>
     <t>Separation Minima Infringements - Overall</t>
@@ -59,63 +86,45 @@
     <t>Runway Incursions - Overall</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
     <t>ATM Specific Occurrences - Overall</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Release date</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>FAB</t>
-  </si>
-  <si>
-    <t>Data Provider</t>
-  </si>
-  <si>
-    <t>SMI_GROUND_PC</t>
-  </si>
-  <si>
-    <t>SMI_OVERALL_PC</t>
+    <t>Baltic FAB</t>
   </si>
   <si>
     <t>Meta data</t>
   </si>
   <si>
-    <t>RI_GROUND_PC</t>
-  </si>
-  <si>
-    <t>RI_OVERALL_PC</t>
-  </si>
-  <si>
-    <t>TECH_OVERALL_PC</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
     <t>ORO NAVIGACIJA</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
     <t>Change date</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>Entity</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>Period</t>
   </si>
   <si>
@@ -125,15 +134,15 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>CAA</t>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
+    <t>DCA</t>
   </si>
   <si>
     <t>Updated with latest information from EASA</t>
   </si>
   <si>
-    <t>SMI</t>
-  </si>
-  <si>
     <t>Final adjustments based on updated EASA information</t>
   </si>
   <si>
@@ -143,24 +152,15 @@
     <t>2018 data based on EASA information</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>DCA</t>
-  </si>
-  <si>
     <t>RAT Ground</t>
   </si>
   <si>
+    <t>RAT Overall</t>
+  </si>
+  <si>
     <t>Greece</t>
   </si>
   <si>
-    <t>RAT Overall</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
@@ -209,13 +209,19 @@
     <t>FAB CE</t>
   </si>
   <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
+    <t>UK-Ireland FAB</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -224,16 +230,10 @@
     <t>STA</t>
   </si>
   <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>AustroControl</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -364,10 +364,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
@@ -379,8 +375,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
+      <sz val="11.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -392,15 +387,25 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -418,11 +423,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -437,12 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
@@ -451,6 +445,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -511,12 +511,11 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -525,11 +524,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -582,202 +582,202 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="10" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="13" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -822,43 +822,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12">
         <v>43609.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="14" t="str">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="17" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RAT_methodology_application","RAT methodology application")</f>
         <v>RAT methodology application</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="str">
+      <c r="B5" s="17" t="str">
         <f>HYPERLINK("mailto:PRU-SUPPORT@eurocontrol.int","PRU-Support@eurocontrol.int")</f>
         <v>PRU-Support@eurocontrol.int</v>
       </c>
@@ -886,107 +886,107 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.96</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>0.97</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>0.96</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>0.98</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.91</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>0.95</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>0.92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>0.82</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8">
         <v>0.92</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>0.9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>0.83</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>0.97</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.73</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>0.88</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>0.73</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>0.76</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.84</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>0.89</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>0.75</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>0.76</v>
       </c>
     </row>
@@ -1020,311 +1020,311 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="8" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11">
-        <v>2018.0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="E2" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="16"/>
       <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="18">
         <v>1.0</v>
       </c>
       <c r="K2" s="19">
         <v>1.0</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="20">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
-        <v>2018.0</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="9">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <v>0.53</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="24">
         <v>0.0</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="26">
+      <c r="G3" s="25"/>
+      <c r="H3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="23">
         <v>0.08</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="24">
         <v>0.33</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="32">
+      <c r="L3" s="25"/>
+      <c r="M3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="27">
         <v>0.48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34">
-        <v>2018.0</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>42</v>
+      <c r="A4" s="29">
+        <v>2018.0</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="J4" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="16"/>
       <c r="M4" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="41">
+        <v>39</v>
+      </c>
+      <c r="O4" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>46</v>
+      <c r="A5" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="48"/>
+      <c r="E5" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="49"/>
       <c r="H5" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="49"/>
       <c r="M5" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="41">
+        <v>39</v>
+      </c>
+      <c r="O5" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>0.99</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <v>0.78</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="39">
+        <v>39</v>
+      </c>
+      <c r="J6" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="35">
         <v>0.49</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="41">
+        <v>39</v>
+      </c>
+      <c r="O6" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="24" t="s">
+      <c r="E7" s="55">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K7" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="24" t="s">
+      <c r="I7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="32">
+      <c r="N7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="27">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1333,187 +1333,187 @@
       <c r="D8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="17"/>
+      <c r="E8" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="61" t="s">
         <v>59</v>
       </c>
       <c r="K9" s="62">
         <v>1.0</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="24" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="27">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>64</v>
+      <c r="A10" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="39">
+      <c r="J10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="35">
         <v>0.08</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="37">
         <v>0.9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="D11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="J11" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="27">
         <v>0.07</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>70</v>
+      <c r="A12" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>63</v>
@@ -1521,25 +1521,25 @@
       <c r="J12" s="63">
         <v>1.0</v>
       </c>
-      <c r="K12" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="K12" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L12" s="16"/>
       <c r="M12" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -1548,41 +1548,41 @@
       <c r="D13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="33">
         <v>0.91</v>
       </c>
-      <c r="F13" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="48"/>
+      <c r="F13" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="49"/>
       <c r="H13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="33">
         <v>0.0</v>
       </c>
-      <c r="K13" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="48"/>
+      <c r="K13" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="49"/>
       <c r="M13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="N13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -1594,10 +1594,10 @@
       <c r="E14" s="63">
         <v>0.62</v>
       </c>
-      <c r="F14" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="48"/>
+      <c r="F14" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="49"/>
       <c r="H14" s="47" t="s">
         <v>75</v>
       </c>
@@ -1607,25 +1607,25 @@
       <c r="J14" s="63">
         <v>0.5</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="35">
         <v>0.5</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="47" t="s">
         <v>75</v>
       </c>
       <c r="N14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="47" t="s">
@@ -1634,41 +1634,41 @@
       <c r="D15" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="33">
         <v>1.0</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="47" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="33">
         <v>0.0</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="35">
         <v>0.0</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="47" t="s">
         <v>77</v>
       </c>
       <c r="N15" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="37">
         <v>0.58</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="47" t="s">
@@ -1677,13 +1677,13 @@
       <c r="D16" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="33">
         <v>0.5</v>
       </c>
-      <c r="F16" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="48"/>
+      <c r="F16" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="49"/>
       <c r="H16" s="47" t="s">
         <v>79</v>
       </c>
@@ -1696,198 +1696,198 @@
       <c r="K16" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="48"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="47" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="37">
         <v>0.6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <v>0.82</v>
       </c>
       <c r="F17" s="62">
         <v>0.93</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="55">
         <v>0.0</v>
       </c>
       <c r="K17" s="62">
         <v>0.5</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="24" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="27">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="E18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="13" t="s">
         <v>83</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L18" s="16"/>
       <c r="M18" s="13" t="s">
         <v>83</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="41">
+        <v>64</v>
+      </c>
+      <c r="O18" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="33">
         <v>0.95</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="35">
         <v>0.95</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="47" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="38">
+        <v>64</v>
+      </c>
+      <c r="J19" s="33">
         <v>0.7</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="35">
         <v>0.74</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="47" t="s">
         <v>85</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="41">
+        <v>64</v>
+      </c>
+      <c r="O19" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="33">
         <v>0.9</v>
       </c>
-      <c r="F20" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="48"/>
+      <c r="F20" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="49"/>
       <c r="H20" s="47" t="s">
         <v>87</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="38">
+        <v>64</v>
+      </c>
+      <c r="J20" s="33">
         <v>0.6</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="35">
         <v>0.86</v>
       </c>
-      <c r="L20" s="48"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="47" t="s">
         <v>87</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="41">
+        <v>64</v>
+      </c>
+      <c r="O20" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>90</v>
@@ -1898,12 +1898,12 @@
       <c r="F21" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="47" t="s">
         <v>89</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="65" t="s">
         <v>91</v>
@@ -1911,444 +1911,444 @@
       <c r="K21" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="48"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="47" t="s">
         <v>89</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="66" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="33">
         <v>0.63</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="35">
         <v>0.0</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="47" t="s">
         <v>92</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="38">
+        <v>64</v>
+      </c>
+      <c r="J22" s="33">
         <v>0.11</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="35">
         <v>0.12</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="47" t="s">
         <v>92</v>
       </c>
       <c r="N22" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="25"/>
+      <c r="M23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="27">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="O22" s="41">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="17"/>
+      <c r="E24" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="16"/>
       <c r="H24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="57" t="s">
         <v>59</v>
       </c>
       <c r="K24" s="67">
         <v>1.0</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="13" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="41">
+        <v>65</v>
+      </c>
+      <c r="O24" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="48"/>
+      <c r="E25" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="49"/>
       <c r="H25" s="47" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K25" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L25" s="48"/>
+        <v>65</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L25" s="49"/>
       <c r="M25" s="47" t="s">
         <v>98</v>
       </c>
       <c r="N25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="41">
+        <v>65</v>
+      </c>
+      <c r="O25" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="57" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="47" t="s">
         <v>100</v>
       </c>
       <c r="I26" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="57" t="s">
         <v>59</v>
       </c>
       <c r="K26" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="47" t="s">
         <v>100</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="68" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="26">
-        <v>0.97</v>
-      </c>
-      <c r="F27" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="K27" s="28">
-        <v>0.99</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="32">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="17"/>
+      <c r="E28" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="13" t="s">
         <v>103</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="K28" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="K28" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="16"/>
       <c r="M28" s="13" t="s">
         <v>103</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O28" s="41">
+        <v>66</v>
+      </c>
+      <c r="O28" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B29" s="52" t="s">
+      <c r="A29" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B29" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="24" t="s">
+      <c r="E29" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K29" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="24" t="s">
+      <c r="I29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="O29" s="32">
+      <c r="N29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="27">
         <v>0.58</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="43">
-        <v>2018.0</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="42">
+        <v>2018.0</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="17"/>
+      <c r="E30" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="16"/>
       <c r="H30" s="13" t="s">
         <v>107</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J30" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="L30" s="17"/>
+      <c r="K30" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L30" s="16"/>
       <c r="M30" s="13" t="s">
         <v>107</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="41">
+        <v>68</v>
+      </c>
+      <c r="O30" s="37">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="51">
+        <v>2018.0</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="52" t="s">
+      <c r="E31" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K31" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="52" t="s">
+      <c r="I31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="N31" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="32">
+      <c r="N31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="27">
         <v>0.68</v>
       </c>
     </row>
@@ -2384,393 +2384,393 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>47</v>
+      <c r="D1" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="E1" s="46"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>47</v>
+      <c r="I1" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="J1" s="46"/>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="44" t="s">
-        <v>47</v>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="46"/>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="53"/>
+      <c r="L2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="52"/>
     </row>
     <row r="3">
-      <c r="A3" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="A3" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="58">
         <v>0.56</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="58">
         <v>0.27</v>
       </c>
       <c r="E3" s="46"/>
-      <c r="F3" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="59">
+      <c r="F3" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="58">
         <v>0.14</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="58">
         <v>0.5</v>
       </c>
       <c r="J3" s="46"/>
-      <c r="K3" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="59">
+      <c r="K3" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="58">
         <v>0.56</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="A4" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="58">
         <v>0.99</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <v>0.81</v>
       </c>
       <c r="E4" s="46"/>
-      <c r="F4" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="F4" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="58">
         <v>0.51</v>
       </c>
       <c r="J4" s="46"/>
-      <c r="K4" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="59">
+      <c r="K4" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="58">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="59">
+      <c r="C5" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="58">
         <v>1.0</v>
       </c>
       <c r="E5" s="46"/>
-      <c r="F5" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="58">
         <v>1.0</v>
       </c>
       <c r="J5" s="46"/>
-      <c r="K5" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L5" s="57" t="s">
+      <c r="K5" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="58">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="59">
+      <c r="C6" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="58">
         <v>1.0</v>
       </c>
       <c r="E6" s="46"/>
-      <c r="F6" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="59">
+      <c r="H6" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="58">
         <v>0.74</v>
       </c>
       <c r="J6" s="46"/>
-      <c r="K6" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L6" s="57" t="s">
+      <c r="K6" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="58">
         <v>0.2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <v>0.82</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="58">
         <v>0.99</v>
       </c>
       <c r="E7" s="46"/>
-      <c r="F7" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="58">
         <v>0.12</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="58">
         <v>0.76</v>
       </c>
       <c r="J7" s="46"/>
-      <c r="K7" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L7" s="57" t="s">
+      <c r="K7" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="58">
         <v>0.79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="58">
+        <v>0.94</v>
+      </c>
+      <c r="D8" s="58">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0.48</v>
+      </c>
+      <c r="I8" s="58">
+        <v>0.67</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="58">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="59">
-        <v>0.94</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0.92</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G8" s="57" t="s">
+      <c r="C9" s="58">
+        <v>0.97</v>
+      </c>
+      <c r="D9" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="59">
-        <v>0.48</v>
-      </c>
-      <c r="I8" s="59">
-        <v>0.67</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L8" s="57" t="s">
+      <c r="H9" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.99</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L9" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="59">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B9" s="57" t="s">
+      <c r="M9" s="58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="59">
-        <v>0.97</v>
-      </c>
-      <c r="D9" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G9" s="57" t="s">
+      <c r="C10" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="I9" s="59">
-        <v>0.99</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L9" s="57" t="s">
+      <c r="H10" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="59">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="59">
+      <c r="M10" s="58">
         <v>0.62</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="59">
+      <c r="A11" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="58">
         <v>1.0</v>
       </c>
       <c r="E11" s="46"/>
-      <c r="F11" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="59">
+      <c r="F11" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="58">
         <v>1.0</v>
       </c>
       <c r="J11" s="46"/>
-      <c r="K11" s="55">
-        <v>2018.0</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="59">
+      <c r="K11" s="54">
+        <v>2018.0</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="58">
         <v>0.77</v>
       </c>
     </row>
@@ -2800,64 +2800,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>34</v>
       </c>
+      <c r="C1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>43311.0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="34">
         <v>2017.0</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>37</v>
+      <c r="D2" s="36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <v>43509.0</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="27">
+      <c r="B3" s="38"/>
+      <c r="C3" s="34">
         <v>2017.0</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>39</v>
+      <c r="D3" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>43609.0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="27">
-        <v>2018.0</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>41</v>
+      <c r="B4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2018.0</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
